--- a/SideProject/04_UCI_Real_estate_valuation/工作表.xlsx
+++ b/SideProject/04_UCI_Real_estate_valuation/工作表.xlsx
@@ -756,10 +756,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -923,13 +924,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -938,22 +939,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -995,20 +984,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1294,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1337,234 +1338,234 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8">
-        <v>207.5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>119.655756</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>104.25</v>
-      </c>
-      <c r="G4" s="8">
-        <v>207.5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>310.75</v>
-      </c>
-      <c r="I4" s="9">
-        <v>414</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="28">
+        <v>37.980193</v>
+      </c>
+      <c r="D4" s="28">
+        <v>13.606488000000001</v>
+      </c>
+      <c r="E4" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="F4" s="28">
+        <v>27.7</v>
+      </c>
+      <c r="G4" s="28">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="H4" s="28">
+        <v>46.6</v>
+      </c>
+      <c r="I4" s="29">
+        <v>117.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="28">
+        <v>207.5</v>
+      </c>
+      <c r="D5" s="28">
+        <v>119.655756</v>
+      </c>
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2013.1489529999999</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.281995</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2012.666667</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2012.916667</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2013.166667</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2013.416667</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2013.583333</v>
+      <c r="F5" s="28">
+        <v>104.25</v>
+      </c>
+      <c r="G5" s="28">
+        <v>207.5</v>
+      </c>
+      <c r="H5" s="28">
+        <v>310.75</v>
+      </c>
+      <c r="I5" s="29">
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8">
-        <v>17.71256</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11.392485000000001</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>9.0250000000000004</v>
-      </c>
-      <c r="G6" s="8">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H6" s="8">
-        <v>28.15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>43.8</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2013.1489529999999</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.281995</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2012.666667</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2012.916667</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2013.166667</v>
+      </c>
+      <c r="H6" s="28">
+        <v>2013.416667</v>
+      </c>
+      <c r="I6" s="29">
+        <v>2013.583333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1083.885689</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1262.1095949999999</v>
-      </c>
-      <c r="E7" s="8">
-        <v>23.382840000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <v>289.32479999999998</v>
-      </c>
-      <c r="G7" s="8">
-        <v>492.23129999999998</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1454.279</v>
-      </c>
-      <c r="I7" s="9">
-        <v>6488.0209999999997</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="28">
+        <v>17.71256</v>
+      </c>
+      <c r="D7" s="28">
+        <v>11.392485000000001</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="G7" s="28">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H7" s="28">
+        <v>28.15</v>
+      </c>
+      <c r="I7" s="29">
+        <v>43.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4.0942030000000003</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2.9455619999999998</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8">
-        <v>6</v>
-      </c>
-      <c r="I8" s="9">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1083.885689</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1262.1095949999999</v>
+      </c>
+      <c r="E8" s="28">
+        <v>23.382840000000002</v>
+      </c>
+      <c r="F8" s="28">
+        <v>289.32479999999998</v>
+      </c>
+      <c r="G8" s="28">
+        <v>492.23129999999998</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1454.279</v>
+      </c>
+      <c r="I8" s="29">
+        <v>6488.0209999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8">
-        <v>24.96903</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1.2409999999999999E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>24.93207</v>
-      </c>
-      <c r="F9" s="8">
-        <v>24.963000000000001</v>
-      </c>
-      <c r="G9" s="8">
-        <v>24.9711</v>
-      </c>
-      <c r="H9" s="8">
-        <v>24.977454999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>25.014589999999998</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="28">
+        <v>4.0942030000000003</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2.9455619999999998</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28">
+        <v>6</v>
+      </c>
+      <c r="I9" s="29">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28">
+        <v>24.96903</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>24.93207</v>
+      </c>
+      <c r="F10" s="28">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="G10" s="28">
+        <v>24.9711</v>
+      </c>
+      <c r="H10" s="28">
+        <v>24.977454999999999</v>
+      </c>
+      <c r="I10" s="29">
+        <v>25.014589999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="30">
         <v>121.533361</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="30">
         <v>1.5347E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="30">
         <v>121.47353</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="30">
         <v>121.528085</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="30">
         <v>121.53863</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="30">
         <v>121.543305</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="31">
         <v>121.56627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12">
-        <v>37.980193</v>
-      </c>
-      <c r="D11" s="12">
-        <v>13.606488000000001</v>
-      </c>
-      <c r="E11" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="F11" s="12">
-        <v>27.7</v>
-      </c>
-      <c r="G11" s="12">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="H11" s="12">
-        <v>46.6</v>
-      </c>
-      <c r="I11" s="13">
-        <v>117.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -1572,7 +1573,7 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1581,7 +1582,7 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1589,7 +1590,7 @@
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1598,7 +1599,7 @@
       <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1606,7 +1607,7 @@
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1615,7 +1616,7 @@
       <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1623,7 +1624,7 @@
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1632,7 +1633,7 @@
       <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1640,7 +1641,7 @@
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1649,44 +1650,44 @@
       <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1694,14 +1695,14 @@
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1709,14 +1710,14 @@
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1724,14 +1725,14 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1739,35 +1740,35 @@
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1776,7 +1777,7 @@
       <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1784,13 +1785,13 @@
       <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>0.65300000000000002</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="18">
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -1798,13 +1799,13 @@
       <c r="B31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="17">
         <v>0.55700000000000005</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="18">
         <v>0.72199999999999998</v>
       </c>
     </row>
@@ -1812,40 +1813,40 @@
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>0.69599999999999995</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="18">
         <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="19">
         <v>0.68100000000000005</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>0.71099999999999997</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1853,13 +1854,13 @@
       <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="23">
         <v>5.2249999999999996</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="23">
         <v>50.823999999999998</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="24">
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -1867,13 +1868,13 @@
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="23">
         <v>5.0259999999999998</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="23">
         <v>46.021999999999998</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="24">
         <v>0.72099999999999997</v>
       </c>
     </row>
@@ -1881,42 +1882,42 @@
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="23">
         <v>4.59</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="23">
         <v>40.177</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="24">
         <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="25">
         <v>4.774</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="25">
         <v>44.094999999999999</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="26">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1924,27 +1925,27 @@
       <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="17">
         <v>5.4340000000000002</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="17">
         <v>59.231000000000002</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="19">
         <v>4.8819999999999997</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="19">
         <v>51.435000000000002</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="20">
         <v>0.7</v>
       </c>
     </row>
